--- a/MaizeCaseFile_2.xlsx
+++ b/MaizeCaseFile_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,16 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>DCCBank_AgricultureLoan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Argicultural_Loan</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Initial Stability</t>
         </is>
       </c>
@@ -502,6 +512,12 @@
         <v>2879</v>
       </c>
       <c r="H2" t="n">
+        <v>923.83</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5214.67</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.9575569797689809</v>
       </c>
     </row>
@@ -532,6 +548,12 @@
         <v>21292</v>
       </c>
       <c r="H3" t="n">
+        <v>5020.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10876.67</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.9583330926483244</v>
       </c>
     </row>
@@ -562,6 +584,12 @@
         <v>10450</v>
       </c>
       <c r="H4" t="n">
+        <v>20868.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31203.85</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.2746734867170757</v>
       </c>
     </row>
@@ -592,6 +620,12 @@
         <v>271975</v>
       </c>
       <c r="H5" t="n">
+        <v>17273.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>123911.81</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.98603641853005</v>
       </c>
     </row>
@@ -622,6 +656,12 @@
         <v>593544</v>
       </c>
       <c r="H6" t="n">
+        <v>24202.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>106009.65</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.9727107004703948</v>
       </c>
     </row>
@@ -652,6 +692,12 @@
         <v>1759</v>
       </c>
       <c r="H7" t="n">
+        <v>5775.47</v>
+      </c>
+      <c r="I7" t="n">
+        <v>77685.40000000001</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.9800688744221153</v>
       </c>
     </row>
@@ -682,6 +728,12 @@
         <v>105491</v>
       </c>
       <c r="H8" t="n">
+        <v>8939.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>59548.93</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.8446242682373449</v>
       </c>
     </row>
@@ -712,6 +764,12 @@
         <v>226532</v>
       </c>
       <c r="H9" t="n">
+        <v>31135.21</v>
+      </c>
+      <c r="I9" t="n">
+        <v>102016.08</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.8727676465434745</v>
       </c>
     </row>
@@ -742,6 +800,12 @@
         <v>66868</v>
       </c>
       <c r="H10" t="n">
+        <v>41077.53</v>
+      </c>
+      <c r="I10" t="n">
+        <v>147446.57</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.7440329372620829</v>
       </c>
     </row>
@@ -772,6 +836,12 @@
         <v>61353</v>
       </c>
       <c r="H11" t="n">
+        <v>45035.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79357.11</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.862275079859286</v>
       </c>
     </row>
@@ -802,6 +872,12 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>72164.17999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>81653.31999999999</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.8259101262922378</v>
       </c>
     </row>
@@ -832,6 +908,12 @@
         <v>109</v>
       </c>
       <c r="H13" t="n">
+        <v>20299.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27941.62</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.3377250324603849</v>
       </c>
     </row>
@@ -862,6 +944,12 @@
         <v>333937</v>
       </c>
       <c r="H14" t="n">
+        <v>49658.44</v>
+      </c>
+      <c r="I14" t="n">
+        <v>109489.9</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.6671379880851294</v>
       </c>
     </row>
@@ -892,6 +980,12 @@
         <v>17921</v>
       </c>
       <c r="H15" t="n">
+        <v>42103.35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50846.95</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.8115727610036372</v>
       </c>
     </row>
@@ -922,6 +1016,12 @@
         <v>19387</v>
       </c>
       <c r="H16" t="n">
+        <v>52800.92</v>
+      </c>
+      <c r="I16" t="n">
+        <v>95985.22</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.5223777288064013</v>
       </c>
     </row>
@@ -952,6 +1052,12 @@
         <v>137154</v>
       </c>
       <c r="H17" t="n">
+        <v>27932.49</v>
+      </c>
+      <c r="I17" t="n">
+        <v>101468.48</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.6168886745187745</v>
       </c>
     </row>
@@ -982,6 +1088,12 @@
         <v>147886</v>
       </c>
       <c r="H18" t="n">
+        <v>11663.67</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29582.5</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.8944599445590105</v>
       </c>
     </row>
@@ -1012,6 +1124,12 @@
         <v>576758</v>
       </c>
       <c r="H19" t="n">
+        <v>132110.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>287351.73</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.7656292821874481</v>
       </c>
     </row>
@@ -1042,6 +1160,12 @@
         <v>226327</v>
       </c>
       <c r="H20" t="n">
+        <v>95766.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>218820.05</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.9301455887572503</v>
       </c>
     </row>
@@ -1072,6 +1196,12 @@
         <v>251699</v>
       </c>
       <c r="H21" t="n">
+        <v>118411.49</v>
+      </c>
+      <c r="I21" t="n">
+        <v>220721.91</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.8884729691480329</v>
       </c>
     </row>
@@ -1102,6 +1232,12 @@
         <v>90634</v>
       </c>
       <c r="H22" t="n">
+        <v>9767.84</v>
+      </c>
+      <c r="I22" t="n">
+        <v>78464.14</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.7980402463844298</v>
       </c>
     </row>
@@ -1132,6 +1268,12 @@
         <v>138476</v>
       </c>
       <c r="H23" t="n">
+        <v>8813.91</v>
+      </c>
+      <c r="I23" t="n">
+        <v>82462.90000000001</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.9875809544027065</v>
       </c>
     </row>
@@ -1162,6 +1304,12 @@
         <v>413487</v>
       </c>
       <c r="H24" t="n">
+        <v>10293.11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>103193.56</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.7050173196932326</v>
       </c>
     </row>
@@ -1192,6 +1340,12 @@
         <v>24088</v>
       </c>
       <c r="H25" t="n">
+        <v>62027.69</v>
+      </c>
+      <c r="I25" t="n">
+        <v>71656.74000000001</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.9305655520062539</v>
       </c>
     </row>
@@ -1222,6 +1376,12 @@
         <v>208090</v>
       </c>
       <c r="H26" t="n">
+        <v>45835.9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>216744.25</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.9864950197457981</v>
       </c>
     </row>
@@ -1252,6 +1412,12 @@
         <v>2791</v>
       </c>
       <c r="H27" t="n">
+        <v>96797.59</v>
+      </c>
+      <c r="I27" t="n">
+        <v>128756.98</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.9143621077075041</v>
       </c>
     </row>
@@ -1282,6 +1448,12 @@
         <v>14621</v>
       </c>
       <c r="H28" t="n">
+        <v>20900.08</v>
+      </c>
+      <c r="I28" t="n">
+        <v>148797.7</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.8687810002291321</v>
       </c>
     </row>
@@ -1312,6 +1484,12 @@
         <v>2673</v>
       </c>
       <c r="H29" t="n">
+        <v>11706.94</v>
+      </c>
+      <c r="I29" t="n">
+        <v>51838.27</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.6000026956720984</v>
       </c>
     </row>
@@ -1342,6 +1520,12 @@
         <v>723</v>
       </c>
       <c r="H30" t="n">
+        <v>25085.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>148633.91</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.903912431091882</v>
       </c>
     </row>
@@ -1372,6 +1556,12 @@
         <v>190252</v>
       </c>
       <c r="H31" t="n">
+        <v>11706.94</v>
+      </c>
+      <c r="I31" t="n">
+        <v>71493.81999999999</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.8687814214278975</v>
       </c>
     </row>
@@ -1402,6 +1592,12 @@
         <v>21291</v>
       </c>
       <c r="H32" t="n">
+        <v>5020.25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10876.67</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.5259890870207882</v>
       </c>
     </row>
